--- a/用例数据/沪A/DVP改革/转处置冻结（T+1日）/测试结果.xlsx
+++ b/用例数据/沪A/DVP改革/转处置冻结（T+1日）/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="335">
   <si>
     <t>EXCHID</t>
   </si>
@@ -909,15 +909,9 @@
     <t>OTHERFEE4</t>
   </si>
   <si>
-    <t>30000131</t>
-  </si>
-  <si>
     <t>005_004_113</t>
   </si>
   <si>
-    <t>20221103164433</t>
-  </si>
-  <si>
     <t>CCB1</t>
   </si>
   <si>
@@ -930,12 +924,6 @@
     <t>65.40000000</t>
   </si>
   <si>
-    <t>20221103000000</t>
-  </si>
-  <si>
-    <t>7126173.610</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
@@ -954,9 +942,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>000007014941</t>
-  </si>
-  <si>
     <t>NONDVP</t>
   </si>
   <si>
@@ -969,79 +954,97 @@
     <t>1.0000000000</t>
   </si>
   <si>
-    <t>30000137</t>
-  </si>
-  <si>
     <t>100.00000000</t>
   </si>
   <si>
-    <t>11803331.670</t>
-  </si>
-  <si>
-    <t>000007014947</t>
-  </si>
-  <si>
-    <t>30000130</t>
-  </si>
-  <si>
     <t>2.50900000</t>
   </si>
   <si>
-    <t>000007014940</t>
-  </si>
-  <si>
-    <t>30000126</t>
-  </si>
-  <si>
-    <t>000007014936</t>
-  </si>
-  <si>
-    <t>30000128</t>
-  </si>
-  <si>
     <t>16.54000000</t>
   </si>
   <si>
-    <t>000007014938</t>
-  </si>
-  <si>
-    <t>30000141</t>
-  </si>
-  <si>
-    <t>10000000.000</t>
-  </si>
-  <si>
     <t>00001</t>
   </si>
   <si>
-    <t>000007014951</t>
-  </si>
-  <si>
-    <t>30000142</t>
-  </si>
-  <si>
-    <t>000007014952</t>
-  </si>
-  <si>
-    <t>30000140</t>
-  </si>
-  <si>
-    <t>000007014950</t>
-  </si>
-  <si>
-    <t>30000138</t>
-  </si>
-  <si>
-    <t>000007014948</t>
-  </si>
-  <si>
-    <t>30000139</t>
-  </si>
-  <si>
     <t>107.62000000</t>
   </si>
   <si>
-    <t>000007014949</t>
+    <t>30150176</t>
+  </si>
+  <si>
+    <t>20221206171215</t>
+  </si>
+  <si>
+    <t>20221206000000</t>
+  </si>
+  <si>
+    <t>19776302.720</t>
+  </si>
+  <si>
+    <t>000007074964</t>
+  </si>
+  <si>
+    <t>30150178</t>
+  </si>
+  <si>
+    <t>000007074966</t>
+  </si>
+  <si>
+    <t>30150177</t>
+  </si>
+  <si>
+    <t>-167782859.530</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>000007074965</t>
+  </si>
+  <si>
+    <t>30150179</t>
+  </si>
+  <si>
+    <t>000007074967</t>
+  </si>
+  <si>
+    <t>30150180</t>
+  </si>
+  <si>
+    <t>000007074968</t>
+  </si>
+  <si>
+    <t>30150181</t>
+  </si>
+  <si>
+    <t>000007074969</t>
+  </si>
+  <si>
+    <t>30150151</t>
+  </si>
+  <si>
+    <t>19471435.760</t>
+  </si>
+  <si>
+    <t>000007074939</t>
+  </si>
+  <si>
+    <t>30150152</t>
+  </si>
+  <si>
+    <t>000007074940</t>
+  </si>
+  <si>
+    <t>30150153</t>
+  </si>
+  <si>
+    <t>000007074941</t>
+  </si>
+  <si>
+    <t>30150154</t>
+  </si>
+  <si>
+    <t>000007074942</t>
   </si>
 </sst>
 </file>
@@ -1075,12 +1078,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1095,13 +1104,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1384,13 +1396,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CI31"/>
+  <dimension ref="A1:CI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3790,7 +3806,7 @@
       <c r="K10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="4" t="s">
         <v>145</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -4053,7 +4069,7 @@
       <c r="K11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="4" t="s">
         <v>151</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -4282,26 +4298,6 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4894,8 +4890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5321,28 +5317,28 @@
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>90</v>
@@ -5351,16 +5347,16 @@
         <v>105</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>100</v>
@@ -5369,22 +5365,22 @@
         <v>100</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>97</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>96</v>
@@ -5393,7 +5389,7 @@
         <v>96</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>93</v>
@@ -5438,25 +5434,25 @@
         <v>96</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>102</v>
@@ -5465,7 +5461,7 @@
         <v>96</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>87</v>
@@ -5477,7 +5473,7 @@
         <v>86</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>87</v>
@@ -5495,10 +5491,10 @@
         <v>87</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>87</v>
@@ -5510,10 +5506,10 @@
         <v>96</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>86</v>
@@ -5543,28 +5539,28 @@
         <v>87</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>96</v>
@@ -5573,16 +5569,16 @@
         <v>96</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>96</v>
@@ -5644,25 +5640,25 @@
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>88</v>
@@ -5677,13 +5673,13 @@
         <v>89</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>100</v>
@@ -5692,76 +5688,76 @@
         <v>100</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>100</v>
@@ -5773,13 +5769,13 @@
         <v>90</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AU3" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>102</v>
@@ -5788,7 +5784,7 @@
         <v>96</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>87</v>
@@ -5800,7 +5796,7 @@
         <v>86</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>87</v>
@@ -5818,10 +5814,10 @@
         <v>87</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>87</v>
@@ -5833,10 +5829,10 @@
         <v>96</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BW3" s="1" t="s">
         <v>86</v>
@@ -5866,28 +5862,28 @@
         <v>87</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="CV3" s="1" t="s">
         <v>87</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="DC3" s="1" t="s">
         <v>96</v>
@@ -5896,16 +5892,16 @@
         <v>96</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="DF3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG3" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>96</v>
@@ -5967,46 +5963,46 @@
     </row>
     <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>100</v>
@@ -6015,94 +6011,94 @@
         <v>100</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>102</v>
@@ -6111,7 +6107,7 @@
         <v>96</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>87</v>
@@ -6123,7 +6119,7 @@
         <v>86</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>87</v>
@@ -6141,10 +6137,10 @@
         <v>87</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>87</v>
@@ -6156,10 +6152,10 @@
         <v>96</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BW4" s="1" t="s">
         <v>86</v>
@@ -6189,28 +6185,28 @@
         <v>87</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CL4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="CV4" s="1" t="s">
         <v>87</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="DC4" s="1" t="s">
         <v>96</v>
@@ -6219,16 +6215,16 @@
         <v>96</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="DF4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="DK4" s="1" t="s">
         <v>96</v>
@@ -6290,46 +6286,46 @@
     </row>
     <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>100</v>
@@ -6338,94 +6334,94 @@
         <v>100</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP5" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AU5" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>102</v>
@@ -6434,7 +6430,7 @@
         <v>96</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>87</v>
@@ -6446,7 +6442,7 @@
         <v>86</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>87</v>
@@ -6464,10 +6460,10 @@
         <v>87</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>87</v>
@@ -6479,10 +6475,10 @@
         <v>96</v>
       </c>
       <c r="BT5" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BW5" s="1" t="s">
         <v>86</v>
@@ -6512,28 +6508,28 @@
         <v>87</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CL5" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="CV5" s="1" t="s">
         <v>87</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="DC5" s="1" t="s">
         <v>96</v>
@@ -6542,16 +6538,16 @@
         <v>96</v>
       </c>
       <c r="DE5" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="DF5" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG5" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="DJ5" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="DK5" s="1" t="s">
         <v>96</v>
@@ -6613,46 +6609,46 @@
     </row>
     <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>100</v>
@@ -6661,94 +6657,94 @@
         <v>100</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP6" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AQ6" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AU6" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AX6" s="1" t="s">
         <v>102</v>
@@ -6757,7 +6753,7 @@
         <v>96</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>87</v>
@@ -6769,7 +6765,7 @@
         <v>86</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BG6" s="1" t="s">
         <v>87</v>
@@ -6787,10 +6783,10 @@
         <v>87</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BQ6" s="1" t="s">
         <v>87</v>
@@ -6802,10 +6798,10 @@
         <v>96</v>
       </c>
       <c r="BT6" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BV6" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BW6" s="1" t="s">
         <v>86</v>
@@ -6835,28 +6831,28 @@
         <v>87</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="CJ6" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CK6" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CL6" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR6" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CT6" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="CV6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="DA6" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="DC6" s="1" t="s">
         <v>96</v>
@@ -6865,16 +6861,16 @@
         <v>96</v>
       </c>
       <c r="DE6" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="DF6" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG6" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="DJ6" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="DK6" s="1" t="s">
         <v>96</v>
@@ -6936,25 +6932,25 @@
     </row>
     <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>111</v>
@@ -6969,13 +6965,13 @@
         <v>112</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>100</v>
@@ -6984,76 +6980,76 @@
         <v>100</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP7" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AQ7" s="1" t="s">
         <v>100</v>
@@ -7065,13 +7061,13 @@
         <v>113</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AU7" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="AX7" s="1" t="s">
         <v>102</v>
@@ -7080,7 +7076,7 @@
         <v>96</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>87</v>
@@ -7092,7 +7088,7 @@
         <v>86</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>87</v>
@@ -7110,10 +7106,10 @@
         <v>87</v>
       </c>
       <c r="BN7" s="1" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BQ7" s="1" t="s">
         <v>87</v>
@@ -7125,10 +7121,10 @@
         <v>96</v>
       </c>
       <c r="BT7" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BV7" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BW7" s="1" t="s">
         <v>86</v>
@@ -7158,28 +7154,28 @@
         <v>87</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="CJ7" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CK7" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CL7" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR7" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CT7" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="CV7" s="1" t="s">
         <v>87</v>
       </c>
       <c r="DA7" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="DC7" s="1" t="s">
         <v>96</v>
@@ -7188,16 +7184,16 @@
         <v>96</v>
       </c>
       <c r="DE7" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="DF7" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG7" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="DJ7" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="DK7" s="1" t="s">
         <v>96</v>
@@ -7259,46 +7255,46 @@
     </row>
     <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>100</v>
@@ -7307,94 +7303,94 @@
         <v>100</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP8" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AQ8" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AU8" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="AX8" s="1" t="s">
         <v>102</v>
@@ -7403,7 +7399,7 @@
         <v>96</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="BA8" s="1" t="s">
         <v>87</v>
@@ -7415,7 +7411,7 @@
         <v>86</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BG8" s="1" t="s">
         <v>87</v>
@@ -7433,10 +7429,10 @@
         <v>87</v>
       </c>
       <c r="BN8" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="BP8" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BQ8" s="1" t="s">
         <v>87</v>
@@ -7448,10 +7444,10 @@
         <v>96</v>
       </c>
       <c r="BT8" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BW8" s="1" t="s">
         <v>86</v>
@@ -7481,28 +7477,28 @@
         <v>87</v>
       </c>
       <c r="CH8" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="CJ8" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CK8" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CL8" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR8" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CT8" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="CV8" s="1" t="s">
         <v>87</v>
       </c>
       <c r="DA8" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="DC8" s="1" t="s">
         <v>96</v>
@@ -7511,16 +7507,16 @@
         <v>96</v>
       </c>
       <c r="DE8" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="DF8" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG8" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="DJ8" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="DK8" s="1" t="s">
         <v>96</v>
@@ -7582,28 +7578,28 @@
     </row>
     <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>90</v>
@@ -7612,16 +7608,16 @@
         <v>105</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>100</v>
@@ -7630,94 +7626,94 @@
         <v>100</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP9" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AQ9" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="AS9" s="1" t="s">
         <v>90</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AU9" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AX9" s="1" t="s">
         <v>102</v>
@@ -7726,7 +7722,7 @@
         <v>96</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>87</v>
@@ -7738,7 +7734,7 @@
         <v>86</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BG9" s="1" t="s">
         <v>87</v>
@@ -7756,10 +7752,10 @@
         <v>87</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="BP9" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BQ9" s="1" t="s">
         <v>87</v>
@@ -7771,10 +7767,10 @@
         <v>96</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BV9" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BW9" s="1" t="s">
         <v>86</v>
@@ -7804,28 +7800,28 @@
         <v>87</v>
       </c>
       <c r="CH9" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="CJ9" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CK9" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CL9" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR9" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CT9" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="CV9" s="1" t="s">
         <v>87</v>
       </c>
       <c r="DA9" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="DC9" s="1" t="s">
         <v>96</v>
@@ -7834,16 +7830,16 @@
         <v>96</v>
       </c>
       <c r="DE9" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="DF9" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG9" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="DJ9" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="DK9" s="1" t="s">
         <v>96</v>
@@ -7905,46 +7901,46 @@
     </row>
     <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>100</v>
@@ -7953,94 +7949,94 @@
         <v>100</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U10" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP10" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="AQ10" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AU10" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="AX10" s="1" t="s">
         <v>102</v>
@@ -8049,7 +8045,7 @@
         <v>96</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>87</v>
@@ -8061,7 +8057,7 @@
         <v>86</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>87</v>
@@ -8079,10 +8075,10 @@
         <v>87</v>
       </c>
       <c r="BN10" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="BP10" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BQ10" s="1" t="s">
         <v>87</v>
@@ -8094,10 +8090,10 @@
         <v>96</v>
       </c>
       <c r="BT10" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BV10" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BW10" s="1" t="s">
         <v>86</v>
@@ -8127,28 +8123,28 @@
         <v>87</v>
       </c>
       <c r="CH10" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="CJ10" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CK10" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CL10" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR10" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CT10" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="CV10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="DA10" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="DC10" s="1" t="s">
         <v>96</v>
@@ -8157,16 +8153,16 @@
         <v>96</v>
       </c>
       <c r="DE10" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="DF10" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG10" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="DJ10" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="DK10" s="1" t="s">
         <v>96</v>
@@ -8228,46 +8224,46 @@
     </row>
     <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>105</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>100</v>
@@ -8276,22 +8272,22 @@
         <v>100</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>97</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>96</v>
@@ -8300,7 +8296,7 @@
         <v>96</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AB11" s="1" t="s">
         <v>93</v>
@@ -8345,25 +8341,25 @@
         <v>96</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AQ11" s="1" t="s">
         <v>100</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AU11" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="AX11" s="1" t="s">
         <v>102</v>
@@ -8372,7 +8368,7 @@
         <v>96</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="BA11" s="1" t="s">
         <v>87</v>
@@ -8384,7 +8380,7 @@
         <v>86</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BG11" s="1" t="s">
         <v>87</v>
@@ -8402,10 +8398,10 @@
         <v>87</v>
       </c>
       <c r="BN11" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="BP11" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BQ11" s="1" t="s">
         <v>87</v>
@@ -8417,10 +8413,10 @@
         <v>96</v>
       </c>
       <c r="BT11" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BV11" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="BW11" s="1" t="s">
         <v>86</v>
@@ -8450,28 +8446,28 @@
         <v>87</v>
       </c>
       <c r="CH11" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="CJ11" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CK11" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="CL11" s="1" t="s">
         <v>104</v>
       </c>
       <c r="CR11" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CT11" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="CV11" s="1" t="s">
         <v>87</v>
       </c>
       <c r="DA11" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="DC11" s="1" t="s">
         <v>96</v>
@@ -8480,16 +8476,16 @@
         <v>96</v>
       </c>
       <c r="DE11" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="DF11" s="1" t="s">
         <v>104</v>
       </c>
       <c r="DG11" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="DJ11" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="DK11" s="1" t="s">
         <v>96</v>
